--- a/数据整理/stocks/A股/上证主板/605060-联德股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/605060-联德股份.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -583,7 +584,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -594,17 +595,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -614,13 +635,103 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>000242</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城策略精选</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17.31</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.77</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6786</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2022-Q1</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>2</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>0.74</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/605060-联德股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/605060-联德股份.xlsx
@@ -6,9 +6,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,129 +452,65 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000242</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>景顺长城策略精选</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>20.09</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>91.24</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.70</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.7433</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.68</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001744</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>诺安进取回报灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>62.10</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.04</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0016</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.74</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -678,64 +614,128 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.68</v>
+          <t>000242</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城策略精选</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>20.09</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7433</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.74</v>
+          <t>001744</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>诺安进取回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>62.10</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/605060-联德股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/605060-联德股份.xlsx
@@ -7,8 +7,9 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,14 +484,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D2" t="n">
-        <v>0.68</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="3">
@@ -499,13 +500,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2022-Q1</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>2</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.74</v>
       </c>
     </row>
@@ -515,6 +532,556 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000242</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城策略精选</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.62</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6833</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010779</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>西部利得量化优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.29</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0903</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>202019</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方策略优化混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0654</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001703</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银华沪港深增长股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.44</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0650</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005914</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城智能生活混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.26</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0376</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006225</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>人保量化基本面混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010780</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>西部利得量化优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.29</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007903</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长城量化小盘股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001744</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>诺安进取回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>82.31</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011231</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>光大保德信锦弘混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>26.05</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>014364</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>银华沪港深增长股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.44</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011232</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>光大保德信锦弘混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>26.05</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006226</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>人保量化基本面混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -608,7 +1175,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/605060-联德股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/605060-联德股份.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>1.03</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="3">
@@ -500,14 +501,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D3" t="n">
-        <v>0.68</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2022-Q1</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>2</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.74</v>
       </c>
     </row>
@@ -532,6 +549,326 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000242</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城策略精选A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.70</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6420</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001703</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华沪港深增长股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0643</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>016307</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城北交所精选两年定开混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>43.56</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0406</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001744</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>诺安进取回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>69.55</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>014364</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银华沪港深增长股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>016308</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城北交所精选两年定开混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>43.56</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>017167</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>景顺长城策略精选C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1081,7 +1418,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1175,7 +1512,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
